--- a/medicine/Enfance/Pierrette_Dubé/Pierrette_Dubé.xlsx
+++ b/medicine/Enfance/Pierrette_Dubé/Pierrette_Dubé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierrette_Dub%C3%A9</t>
+          <t>Pierrette_Dubé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierrette Dubé, née en 1952 à Valleyfield, est une autrice canadienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierrette_Dub%C3%A9</t>
+          <t>Pierrette_Dubé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierrette Dubé étudie en lettres à l'université de Montréal et en traduction à l'université McGill. Elle exerce le métier de traductrice pendant plusieurs années avant de se consacrer à la littérature jeunesse[1].
-Elle remporte le Prix des libraires du Québec 2015 pour son livre La petite truie, le vélo et la lune avec Orbie (Éditions Les 400 coups)[2]. Publié en 2022, Un Rhume de cheval (Éditions Fonfon) fait partie des finalistes pour les Prix littéraires du Gouverneur général 2022 dans la catégorie Littérature jeunesse – livres illustrés[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierrette Dubé étudie en lettres à l'université de Montréal et en traduction à l'université McGill. Elle exerce le métier de traductrice pendant plusieurs années avant de se consacrer à la littérature jeunesse.
+Elle remporte le Prix des libraires du Québec 2015 pour son livre La petite truie, le vélo et la lune avec Orbie (Éditions Les 400 coups). Publié en 2022, Un Rhume de cheval (Éditions Fonfon) fait partie des finalistes pour les Prix littéraires du Gouverneur général 2022 dans la catégorie Littérature jeunesse – livres illustrés.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierrette_Dub%C3%A9</t>
+          <t>Pierrette_Dubé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Albums
-Nom de nom!, avec Dominique Jolin,  Collection Le raton laveur, Banjo, 1992
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nom de nom!, avec Dominique Jolin,  Collection Le raton laveur, Banjo, 1992
 Au lit, princesse Émilie!, avec Yayo, Collection Le raton laveur, Banjo, 1995
 La visite, avec  Réal Godbout, Collection Le raton laveur, Banjo, 1999
 Maman s’est perdue, avec Caroline Hamel, Collection Grimace, Les 400 coups, 2005, ré-édition 2022
@@ -570,9 +592,47 @@
 Le petit cochon qui mangeait comme un petit garçon, avec Baptiste Amsallem, La bagnole, 2021
 La boîte aux lettres, avec Aurélien Galvan, La Courte Échelle, 2022
 Monsieur Pigeon et Madame Mouette, avec Jasmine Mirra Turcotte, Collection Carré blanc, Les 400 coups, 2022
-Un rhume de cheval, avec Enzo, Éditions Fonfon, 2022
-Romans
-Flic et Agatha La mystérieuse affaire des casquettes, Québec Amérique, 2016[4]
+Un rhume de cheval, avec Enzo, Éditions Fonfon, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierrette_Dubé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierrette_Dub%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Flic et Agatha La mystérieuse affaire des casquettes, Québec Amérique, 2016
 Flic et Agatha - Petits chiens et grosse moustache, Québec Amérique, 2017
 Flic et Agatha - Fantôme et cordes à linge, Québec Amérique, 2020
 Les mannequins maléfiques,  La Courte Échelle, 2020
@@ -580,41 +640,43 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pierrette_Dub%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierrette_Dubé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pierrette_Dub%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1986, 1re prix du Concours littéraire Lurelu pour Le roi qui ne savait pas le nom des choses.[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1986, 1re prix du Concours littéraire Lurelu pour Le roi qui ne savait pas le nom des choses.
 Prix du livre M. Christie 1995 pour Au lit, princesse Émilie!
 Prix Québec-Wallonie-Bruxelles de littérature de jeunesse 2007 pour Maman s’est perdue
 Prix des libraires du Québec 2015 pour La petite truie, le vélo et la lune
 Prix Peuplier 2018 de l’Ontario Library Association pour La méchante petite poulette dans Tarzanette et le Roi du petit déjeuner
 Grand prix littéraire de la Montérégie, catégorie Tout-petits 2018 pour Un camion! Quel camion?
 Prix Espiègle 2018, finaliste, Petite histoire pour effrayer les ogres
-2022 : Finaliste, Prix littéraires du Gouverneur général, catégorie littérature jeunesse de langue française - illustration, Un rhume de cheval[6]
-2023 : Gagnant, Grand prix littéraire de la Montérégie, Prix Philippe Béha, Un rhume de cheval[7]</t>
+2022 : Finaliste, Prix littéraires du Gouverneur général, catégorie littérature jeunesse de langue française - illustration, Un rhume de cheval
+2023 : Gagnant, Grand prix littéraire de la Montérégie, Prix Philippe Béha, Un rhume de cheval</t>
         </is>
       </c>
     </row>
